--- a/Capstone Project/Monika/Costs PerV2.xlsx
+++ b/Capstone Project/Monika/Costs PerV2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monika\Desktop\Capstone-Project-Data-Modeling-and-PowerBI\Capstone Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monik\Desktop\Capstone-Project-Data-Modeling-and-PowerBI\Capstone Project\Monika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511EBB85-BA56-4A4E-A9CB-B78C8E403B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476F652E-AFD0-4460-9A04-9DB6BFF983EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{ED117939-1D2E-4498-B130-96B64592D033}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{ED117939-1D2E-4498-B130-96B64592D033}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Repairs</t>
   </si>
   <si>
-    <t>British Columbia</t>
-  </si>
-  <si>
     <t>Alberta</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Cities</t>
   </si>
   <si>
-    <t>Provinces</t>
-  </si>
-  <si>
     <t>Vancouver</t>
   </si>
   <si>
@@ -225,6 +219,12 @@
   </si>
   <si>
     <t>Premium</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>To</t>
   </si>
 </sst>
 </file>
@@ -233,7 +233,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -310,13 +310,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -637,41 +637,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6105DF2C-7430-48BF-A45E-C623D48AA4A1}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.265625" customWidth="1"/>
-    <col min="6" max="6" width="16.9296875" customWidth="1"/>
-    <col min="7" max="7" width="18.9296875" customWidth="1"/>
-    <col min="8" max="8" width="14.06640625" customWidth="1"/>
-    <col min="9" max="10" width="12.86328125" customWidth="1"/>
-    <col min="11" max="11" width="12.73046875" customWidth="1"/>
-    <col min="12" max="12" width="18.3984375" customWidth="1"/>
-    <col min="13" max="13" width="21.33203125" customWidth="1"/>
-    <col min="14" max="14" width="19.73046875" customWidth="1"/>
-    <col min="15" max="15" width="22.1328125" customWidth="1"/>
-    <col min="16" max="16" width="19.1328125" customWidth="1"/>
-    <col min="17" max="17" width="18.796875" customWidth="1"/>
-    <col min="18" max="18" width="23.265625" customWidth="1"/>
-    <col min="19" max="19" width="22.59765625" customWidth="1"/>
-    <col min="20" max="21" width="19.796875" customWidth="1"/>
-    <col min="22" max="22" width="20.33203125" customWidth="1"/>
-    <col min="23" max="23" width="22.33203125" customWidth="1"/>
-    <col min="24" max="24" width="21.9296875" customWidth="1"/>
-    <col min="25" max="25" width="15.796875" customWidth="1"/>
-    <col min="26" max="26" width="18.06640625" customWidth="1"/>
+    <col min="1" max="1" width="18.578125" customWidth="1"/>
+    <col min="2" max="2" width="21.68359375" customWidth="1"/>
+    <col min="3" max="3" width="15.7890625" customWidth="1"/>
+    <col min="4" max="4" width="18.3125" customWidth="1"/>
+    <col min="5" max="5" width="16.26171875" customWidth="1"/>
+    <col min="6" max="6" width="16.9453125" customWidth="1"/>
+    <col min="7" max="7" width="18.9453125" customWidth="1"/>
+    <col min="8" max="8" width="14.05078125" customWidth="1"/>
+    <col min="9" max="10" width="12.83984375" customWidth="1"/>
+    <col min="11" max="11" width="12.734375" customWidth="1"/>
+    <col min="12" max="12" width="18.41796875" customWidth="1"/>
+    <col min="13" max="13" width="21.3125" customWidth="1"/>
+    <col min="14" max="14" width="19.734375" customWidth="1"/>
+    <col min="15" max="15" width="22.1015625" customWidth="1"/>
+    <col min="16" max="16" width="19.1015625" customWidth="1"/>
+    <col min="17" max="17" width="18.7890625" customWidth="1"/>
+    <col min="18" max="18" width="23.26171875" customWidth="1"/>
+    <col min="19" max="19" width="22.578125" customWidth="1"/>
+    <col min="20" max="21" width="19.7890625" customWidth="1"/>
+    <col min="22" max="22" width="20.3125" customWidth="1"/>
+    <col min="23" max="23" width="22.3125" customWidth="1"/>
+    <col min="24" max="24" width="21.9453125" customWidth="1"/>
+    <col min="25" max="25" width="15.7890625" customWidth="1"/>
+    <col min="26" max="26" width="18.05078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -680,13 +680,13 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="E2">
         <v>118</v>
       </c>
@@ -697,58 +697,58 @@
         <v>140</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
         <v>56</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>25</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>26</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>27</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>28</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>29</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>30</v>
       </c>
-      <c r="W2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="38.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:26" ht="38.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="7"/>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>0.01</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <v>0.65</v>
@@ -793,12 +793,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -806,12 +806,12 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>7</v>
@@ -830,18 +830,18 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -864,59 +864,59 @@
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="Y6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B7" s="12">
         <f>B14*0.3</f>
         <v>88237500</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5">
         <f>B7*0.7</f>
@@ -988,7 +988,7 @@
         <v>882475</v>
       </c>
       <c r="Y7" s="6">
-        <f>SUM(L7:X7)</f>
+        <f t="shared" ref="Y7:Y13" si="0">SUM(L7:X7)</f>
         <v>7063120</v>
       </c>
       <c r="Z7" s="9">
@@ -996,14 +996,14 @@
         <v>88275820</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
       <c r="B8" s="12">
         <f>B14*0.27</f>
         <v>79413750</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5">
         <f>G8*0.7</f>
@@ -1022,15 +1022,15 @@
         <v>73037160</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" ref="H8:H13" si="0">K8*0.7</f>
+        <f t="shared" ref="H8:H13" si="1">K8*0.7</f>
         <v>37989</v>
       </c>
       <c r="I8" s="8">
-        <f t="shared" ref="I8:I13" si="1">K8*0.2</f>
+        <f t="shared" ref="I8:I13" si="2">K8*0.2</f>
         <v>10854</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" ref="J8:J13" si="2">K8*0.1</f>
+        <f t="shared" ref="J8:J13" si="3">K8*0.1</f>
         <v>5427</v>
       </c>
       <c r="K8" s="6">
@@ -1072,22 +1072,22 @@
       </c>
       <c r="X8" s="8"/>
       <c r="Y8" s="6">
-        <f>SUM(L8:X8)</f>
+        <f t="shared" si="0"/>
         <v>5561922.5</v>
       </c>
       <c r="Z8" s="9">
-        <f t="shared" ref="Z8:Z13" si="3">SUM(G8+K8+Y8)</f>
+        <f t="shared" ref="Z8:Z13" si="4">SUM(G8+K8+Y8)</f>
         <v>78653352.5</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="12">
         <f>B14*0.17</f>
         <v>50001250</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="5">
         <f>G9*0.7</f>
@@ -1106,15 +1106,15 @@
         <v>45986360</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23919</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6834</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3417</v>
       </c>
       <c r="K9" s="6">
@@ -1144,33 +1144,33 @@
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="6">
-        <f>SUM(L9:X9)</f>
+        <f t="shared" si="0"/>
         <v>1500437.5</v>
       </c>
       <c r="Z9" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47520967.5</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="12">
         <f>B14*0.09</f>
         <v>26471250</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" ref="D10:D13" si="4">G10*0.7</f>
+        <f t="shared" ref="D10:D13" si="5">G10*0.7</f>
         <v>17042004</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" ref="E10:E13" si="5">G10*0.2</f>
+        <f t="shared" ref="E10:E13" si="6">G10*0.2</f>
         <v>4869144</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" ref="F10:F13" si="6">G10*0.1</f>
+        <f t="shared" ref="F10:F13" si="7">G10*0.1</f>
         <v>2434572</v>
       </c>
       <c r="G10" s="6">
@@ -1178,15 +1178,15 @@
         <v>24345720</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12663</v>
       </c>
       <c r="I10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3618</v>
       </c>
       <c r="J10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1809</v>
       </c>
       <c r="K10" s="6">
@@ -1219,33 +1219,33 @@
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="6">
-        <f>SUM(L10:X10)</f>
+        <f t="shared" si="0"/>
         <v>1060750</v>
       </c>
       <c r="Z10" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25424560</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="12">
         <f>B14*0.07</f>
         <v>20588750.000000004</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13254892</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3787112</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1893556</v>
       </c>
       <c r="G11" s="6">
@@ -1253,15 +1253,15 @@
         <v>18935560</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9849</v>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2814.0000000000005</v>
       </c>
       <c r="J11" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1407.0000000000002</v>
       </c>
       <c r="K11" s="6">
@@ -1285,33 +1285,33 @@
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="6">
-        <f>SUM(L11:X11)</f>
+        <f t="shared" si="0"/>
         <v>206007.50000000003</v>
       </c>
       <c r="Z11" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19155637.5</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="12">
         <f>B14*0.06</f>
         <v>17647500</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11361336</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3246096</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1623048</v>
       </c>
       <c r="G12" s="6">
@@ -1319,15 +1319,15 @@
         <v>16230480</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8442</v>
       </c>
       <c r="I12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2412</v>
       </c>
       <c r="J12" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1206</v>
       </c>
       <c r="K12" s="6">
@@ -1357,33 +1357,33 @@
         <v>176575</v>
       </c>
       <c r="Y12" s="6">
-        <f>SUM(L12:X12)</f>
+        <f t="shared" si="0"/>
         <v>530165</v>
       </c>
       <c r="Z12" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16772705</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="12">
         <f>B14*0.04</f>
         <v>11765000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7574223.9999999991</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2164064</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1082032</v>
       </c>
       <c r="G13" s="6">
@@ -1391,15 +1391,15 @@
         <v>10820320</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5628</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1608</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>804</v>
       </c>
       <c r="K13" s="6">
@@ -1423,17 +1423,17 @@
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="6">
-        <f>SUM(L13:X13)</f>
+        <f t="shared" si="0"/>
         <v>118350</v>
       </c>
       <c r="Z13" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10946710</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="10">
         <f>452500000*H3</f>
@@ -1445,11 +1445,11 @@
         <v>194315170</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" ref="E14:F14" si="7">SUM(E7:E13)</f>
+        <f t="shared" ref="E14:F14" si="8">SUM(E7:E13)</f>
         <v>54101600</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27050800</v>
       </c>
       <c r="G14" s="6">
@@ -1469,87 +1469,87 @@
         <v>201000</v>
       </c>
       <c r="L14" s="6">
-        <f>SUM(L7:L13)</f>
+        <f t="shared" ref="L14:Z14" si="9">SUM(L7:L13)</f>
         <v>1942425</v>
       </c>
       <c r="M14" s="6">
-        <f>SUM(M7:M13)</f>
+        <f t="shared" si="9"/>
         <v>1678912.5</v>
       </c>
       <c r="N14" s="6">
-        <f>SUM(N7:N13)</f>
+        <f t="shared" si="9"/>
         <v>1324562.5</v>
       </c>
       <c r="O14" s="6">
-        <f>SUM(O7:O13)</f>
+        <f t="shared" si="9"/>
         <v>1382627.5</v>
       </c>
       <c r="P14" s="6">
-        <f>SUM(P7:P13)</f>
+        <f t="shared" si="9"/>
         <v>2383252.5</v>
       </c>
       <c r="Q14" s="6">
-        <f>SUM(Q7:Q13)</f>
+        <f t="shared" si="9"/>
         <v>794457.5</v>
       </c>
       <c r="R14" s="6">
-        <f>SUM(R7:R13)</f>
+        <f t="shared" si="9"/>
         <v>1178600</v>
       </c>
       <c r="S14" s="6">
-        <f>SUM(S7:S13)</f>
+        <f t="shared" si="9"/>
         <v>2176925</v>
       </c>
       <c r="T14" s="6">
-        <f>SUM(T7:T13)</f>
+        <f t="shared" si="9"/>
         <v>1148687.5</v>
       </c>
       <c r="U14" s="6">
-        <f>SUM(U7:U13)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V14" s="6">
-        <f>SUM(V7:V13)</f>
+        <f t="shared" si="9"/>
         <v>176915</v>
       </c>
       <c r="W14" s="6">
-        <f>SUM(W7:W13)</f>
+        <f t="shared" si="9"/>
         <v>794337.5</v>
       </c>
       <c r="X14" s="6">
-        <f>SUM(X7:X13)</f>
+        <f t="shared" si="9"/>
         <v>1059050</v>
       </c>
       <c r="Y14" s="6">
-        <f>SUM(Y7:Y13)</f>
+        <f t="shared" si="9"/>
         <v>16040752.5</v>
       </c>
       <c r="Z14" s="9">
-        <f>SUM(Z7:Z13)</f>
+        <f t="shared" si="9"/>
         <v>286749752.5</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="12">
         <f>B22*0.3</f>
         <v>821535</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" ref="D15:D20" si="8">G15*0.7</f>
+        <f t="shared" ref="D15:D20" si="10">G15*0.7</f>
         <v>48796938.11999999</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" ref="E15:E20" si="9">G15*0.2</f>
+        <f t="shared" ref="E15:E20" si="11">G15*0.2</f>
         <v>13941982.32</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" ref="F15:F20" si="10">G15*0.1</f>
+        <f t="shared" ref="F15:F20" si="12">G15*0.1</f>
         <v>6970991.1600000001</v>
       </c>
       <c r="G15" s="6">
@@ -1589,7 +1589,7 @@
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="6">
-        <f>SUM(L15:X15)</f>
+        <f t="shared" ref="Y15:Y21" si="13">SUM(L15:X15)</f>
         <v>575714.5</v>
       </c>
       <c r="Z15" s="9">
@@ -1597,25 +1597,25 @@
         <v>70286556.099999994</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2"/>
       <c r="B16" s="12">
         <f>B22*0.27</f>
         <v>739381.5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>43917244.307999998</v>
       </c>
       <c r="E16" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12547784.088000001</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6273892.0440000007</v>
       </c>
       <c r="G16" s="6">
@@ -1623,15 +1623,15 @@
         <v>62738920.440000005</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" ref="H16:H21" si="11">K16*0.7</f>
+        <f t="shared" ref="H16:H21" si="14">K16*0.7</f>
         <v>585.9</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" ref="I16:I21" si="12">K16*0.2</f>
+        <f t="shared" ref="I16:I21" si="15">K16*0.2</f>
         <v>167.4</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" ref="J16:J21" si="13">K16*0.1</f>
+        <f t="shared" ref="J16:J21" si="16">K16*0.1</f>
         <v>83.7</v>
       </c>
       <c r="K16" s="6">
@@ -1658,33 +1658,33 @@
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="6">
-        <f>SUM(L16:X16)</f>
+        <f t="shared" si="13"/>
         <v>1035454.1</v>
       </c>
       <c r="Z16" s="9">
-        <f t="shared" ref="Z16:Z21" si="14">G16+K16+Y16</f>
+        <f t="shared" ref="Z16:Z21" si="17">G16+K16+Y16</f>
         <v>63775211.540000007</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
       <c r="B17" s="12">
         <f>B22*0.17</f>
         <v>465536.50000000006</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>27651598.267999999</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7900456.648000001</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3950228.3240000005</v>
       </c>
       <c r="G17" s="6">
@@ -1692,15 +1692,15 @@
         <v>39502283.240000002</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>368.9</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>105.4</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>52.7</v>
       </c>
       <c r="K17" s="6">
@@ -1727,33 +1727,33 @@
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="6">
-        <f>SUM(L17:X17)</f>
+        <f t="shared" si="13"/>
         <v>331170.91500000004</v>
       </c>
       <c r="Z17" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>39833981.155000001</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="12">
         <f>B22*0.09</f>
         <v>246460.5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14639081.435999999</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4182594.6960000005</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2091297.3480000002</v>
       </c>
       <c r="G18" s="6">
@@ -1761,15 +1761,15 @@
         <v>20912973.48</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>195.29999999999998</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>55.800000000000004</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>27.900000000000002</v>
       </c>
       <c r="K18" s="6">
@@ -1793,33 +1793,33 @@
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="6">
-        <f>SUM(L18:X18)</f>
+        <f t="shared" si="13"/>
         <v>173222.34999999998</v>
       </c>
       <c r="Z18" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>21086474.830000002</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
       <c r="B19" s="12">
         <f>B22*0.07</f>
         <v>191691.50000000003</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11385952.228</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3253129.2080000006</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1626564.6040000003</v>
       </c>
       <c r="G19" s="6">
@@ -1827,15 +1827,15 @@
         <v>16265646.040000001</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>151.9</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>43.400000000000006</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>21.700000000000003</v>
       </c>
       <c r="K19" s="6">
@@ -1862,33 +1862,33 @@
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="6">
-        <f>SUM(L19:X19)</f>
+        <f t="shared" si="13"/>
         <v>269648.10000000003</v>
       </c>
       <c r="Z19" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>16535511.140000001</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2"/>
       <c r="B20" s="12">
         <f>B22*0.06</f>
         <v>164307</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9759387.6239999998</v>
       </c>
       <c r="E20" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2788396.4640000002</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1394198.2320000001</v>
       </c>
       <c r="G20" s="6">
@@ -1896,15 +1896,15 @@
         <v>13941982.32</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>130.19999999999999</v>
       </c>
       <c r="I20" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>37.200000000000003</v>
       </c>
       <c r="J20" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>18.600000000000001</v>
       </c>
       <c r="K20" s="6">
@@ -1934,33 +1934,33 @@
         <v>115114.9</v>
       </c>
       <c r="Y20" s="6">
-        <f>SUM(L20:X20)</f>
+        <f t="shared" si="13"/>
         <v>346664.69999999995</v>
       </c>
       <c r="Z20" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>14288833.02</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
       <c r="B21" s="12">
         <f>B22*0.04</f>
         <v>109538</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" s="8">
-        <f>G21*0.7</f>
+        <f t="shared" ref="D21:D29" si="18">G21*0.7</f>
         <v>6506258.4160000002</v>
       </c>
       <c r="E21" s="8">
-        <f>G21*0.2</f>
+        <f t="shared" ref="E21:E29" si="19">G21*0.2</f>
         <v>1858930.9760000003</v>
       </c>
       <c r="F21" s="8">
-        <f>G21*0.1</f>
+        <f t="shared" ref="F21:F29" si="20">G21*0.1</f>
         <v>929465.48800000013</v>
       </c>
       <c r="G21" s="6">
@@ -1968,15 +1968,15 @@
         <v>9294654.8800000008</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>86.8</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>24.8</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>12.4</v>
       </c>
       <c r="K21" s="6">
@@ -2000,17 +2000,17 @@
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="6">
-        <f>SUM(L21:X21)</f>
+        <f t="shared" si="13"/>
         <v>76876.599999999991</v>
       </c>
       <c r="Z21" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9371655.4800000004</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="10">
         <f>4213000*H3</f>
@@ -2018,15 +2018,15 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="6">
-        <f>G22*0.7</f>
+        <f t="shared" si="18"/>
         <v>162656460.39999998</v>
       </c>
       <c r="E22" s="6">
-        <f>G22*0.2</f>
+        <f t="shared" si="19"/>
         <v>46473274.400000006</v>
       </c>
       <c r="F22" s="6">
-        <f>G22*0.1</f>
+        <f t="shared" si="20"/>
         <v>23236637.200000003</v>
       </c>
       <c r="G22" s="6">
@@ -2046,55 +2046,55 @@
         <v>3100</v>
       </c>
       <c r="L22" s="6">
-        <f>SUM(L15:L21)</f>
+        <f t="shared" ref="L22:R22" si="21">SUM(L15:L21)</f>
         <v>4855.3650000000007</v>
       </c>
       <c r="M22" s="6">
-        <f>SUM(M15:M21)</f>
+        <f t="shared" si="21"/>
         <v>135384.05000000002</v>
       </c>
       <c r="N22" s="6">
-        <f>SUM(N15:N21)</f>
+        <f t="shared" si="21"/>
         <v>594643.65</v>
       </c>
       <c r="O22" s="6">
-        <f>SUM(O15:O21)</f>
+        <f t="shared" si="21"/>
         <v>134264.05000000002</v>
       </c>
       <c r="P22" s="6">
-        <f>SUM(P15:P21)</f>
+        <f t="shared" si="21"/>
         <v>632821.94999999995</v>
       </c>
       <c r="Q22" s="6">
-        <f>SUM(Q15:Q21)</f>
+        <f t="shared" si="21"/>
         <v>575714.5</v>
       </c>
       <c r="R22" s="6">
-        <f>SUM(R15:R21)</f>
+        <f t="shared" si="21"/>
         <v>289637.25</v>
       </c>
       <c r="S22" s="6">
-        <f t="shared" ref="S22:X22" si="15">SUM(S15:S21)</f>
+        <f t="shared" ref="S22:X22" si="22">SUM(S15:S21)</f>
         <v>0</v>
       </c>
       <c r="T22" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U22" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V22" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>326315.55000000005</v>
       </c>
       <c r="W22" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X22" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>115114.9</v>
       </c>
       <c r="Y22" s="6">
@@ -2106,27 +2106,27 @@
         <v>235178223.26500005</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="12">
         <f>B30*0.3</f>
         <v>2407275</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="8">
-        <f>G23*0.7</f>
+        <f t="shared" si="18"/>
         <v>170420040</v>
       </c>
       <c r="E23" s="8">
-        <f>G23*0.2</f>
+        <f t="shared" si="19"/>
         <v>48691440</v>
       </c>
       <c r="F23" s="8">
-        <f>G23*0.1</f>
+        <f t="shared" si="20"/>
         <v>24345720</v>
       </c>
       <c r="G23" s="6">
@@ -2178,33 +2178,33 @@
         <v>1685492.5</v>
       </c>
       <c r="Y23" s="6">
-        <f>SUM(L23:X23)</f>
+        <f t="shared" ref="Y23:Y29" si="23">SUM(L23:X23)</f>
         <v>6767022.75</v>
       </c>
       <c r="Z23" s="9">
-        <f>SUM(G23+K23+Y23)</f>
+        <f t="shared" ref="Z23:Z29" si="24">SUM(G23+K23+Y23)</f>
         <v>250385322.75</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2"/>
       <c r="B24" s="12">
         <f>B30*0.27</f>
         <v>2166547.5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D24" s="8">
-        <f>G24*0.7</f>
+        <f t="shared" si="18"/>
         <v>153378036</v>
       </c>
       <c r="E24" s="8">
-        <f>G24*0.2</f>
+        <f t="shared" si="19"/>
         <v>43822296</v>
       </c>
       <c r="F24" s="8">
-        <f>G24*0.1</f>
+        <f t="shared" si="20"/>
         <v>21911148</v>
       </c>
       <c r="G24" s="6">
@@ -2212,15 +2212,15 @@
         <v>219111480</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" ref="H24:H29" si="16">K24*0.7</f>
+        <f t="shared" ref="H24:H29" si="25">K24*0.7</f>
         <v>101493</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" ref="I24:I29" si="17">K24*0.2</f>
+        <f t="shared" ref="I24:I29" si="26">K24*0.2</f>
         <v>28998</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" ref="J24:J29" si="18">K24*0.1</f>
+        <f t="shared" ref="J24:J29" si="27">K24*0.1</f>
         <v>14499</v>
       </c>
       <c r="K24" s="6">
@@ -2250,33 +2250,33 @@
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="6">
-        <f>SUM(L24:X24)</f>
+        <f t="shared" si="23"/>
         <v>4551869.75</v>
       </c>
       <c r="Z24" s="9">
-        <f>SUM(G24+K24+Y24)</f>
+        <f t="shared" si="24"/>
         <v>223808339.75</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2"/>
       <c r="B25" s="12">
         <f>B30*0.17</f>
         <v>1364122.5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" s="8">
-        <f>G25*0.7</f>
+        <f t="shared" si="18"/>
         <v>96571356</v>
       </c>
       <c r="E25" s="8">
-        <f>G25*0.2</f>
+        <f t="shared" si="19"/>
         <v>27591816</v>
       </c>
       <c r="F25" s="8">
-        <f>G25*0.1</f>
+        <f t="shared" si="20"/>
         <v>13795908</v>
       </c>
       <c r="G25" s="6">
@@ -2284,15 +2284,15 @@
         <v>137959080</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>63902.999999999993</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>18258</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>9129</v>
       </c>
       <c r="K25" s="6">
@@ -2319,33 +2319,33 @@
       <c r="W25" s="8"/>
       <c r="X25" s="8"/>
       <c r="Y25" s="6">
-        <f>SUM(L25:X25)</f>
+        <f t="shared" si="23"/>
         <v>1910241.4999999998</v>
       </c>
       <c r="Z25" s="9">
-        <f>SUM(G25+K25+Y25)</f>
+        <f t="shared" si="24"/>
         <v>139960611.5</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
       <c r="B26" s="12">
         <f>B30*0.09</f>
         <v>722182.5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26" s="8">
-        <f>G26*0.7</f>
+        <f t="shared" si="18"/>
         <v>51126012</v>
       </c>
       <c r="E26" s="8">
-        <f>G26*0.2</f>
+        <f t="shared" si="19"/>
         <v>14607432</v>
       </c>
       <c r="F26" s="8">
-        <f>G26*0.1</f>
+        <f t="shared" si="20"/>
         <v>7303716</v>
       </c>
       <c r="G26" s="6">
@@ -2353,15 +2353,15 @@
         <v>73037160</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>33831</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>9666</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>4833</v>
       </c>
       <c r="K26" s="6">
@@ -2391,33 +2391,33 @@
       <c r="W26" s="8"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="6">
-        <f>SUM(L26:X26)</f>
+        <f t="shared" si="23"/>
         <v>1516883.2499999998</v>
       </c>
       <c r="Z26" s="9">
-        <f>SUM(G26+K26+Y26)</f>
+        <f t="shared" si="24"/>
         <v>74602373.25</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2"/>
       <c r="B27" s="12">
         <f>B30*0.07</f>
         <v>561697.5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D27" s="8">
-        <f>G27*0.7</f>
+        <f t="shared" si="18"/>
         <v>39764676</v>
       </c>
       <c r="E27" s="8">
-        <f>G27*0.2</f>
+        <f t="shared" si="19"/>
         <v>11361336.000000002</v>
       </c>
       <c r="F27" s="8">
-        <f>G27*0.1</f>
+        <f t="shared" si="20"/>
         <v>5680668.0000000009</v>
       </c>
       <c r="G27" s="6">
@@ -2425,15 +2425,15 @@
         <v>56806680.000000007</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>26313</v>
       </c>
       <c r="I27" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>7518</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>3759</v>
       </c>
       <c r="K27" s="6">
@@ -2466,33 +2466,33 @@
         <v>393288.25</v>
       </c>
       <c r="Y27" s="6">
-        <f>SUM(L27:X27)</f>
+        <f t="shared" si="23"/>
         <v>1743082.25</v>
       </c>
       <c r="Z27" s="9">
-        <f>SUM(G27+K27+Y27)</f>
+        <f t="shared" si="24"/>
         <v>58587352.250000007</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2"/>
       <c r="B28" s="12">
         <f>B30*0.06</f>
         <v>481455</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D28" s="8">
-        <f>G28*0.7</f>
+        <f t="shared" si="18"/>
         <v>34084008</v>
       </c>
       <c r="E28" s="8">
-        <f>G28*0.2</f>
+        <f t="shared" si="19"/>
         <v>9738288</v>
       </c>
       <c r="F28" s="8">
-        <f>G28*0.1</f>
+        <f t="shared" si="20"/>
         <v>4869144</v>
       </c>
       <c r="G28" s="6">
@@ -2500,15 +2500,15 @@
         <v>48691440</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>22554</v>
       </c>
       <c r="I28" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>6444</v>
       </c>
       <c r="J28" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>3222</v>
       </c>
       <c r="K28" s="6">
@@ -2538,33 +2538,33 @@
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="6">
-        <f>SUM(L28:X28)</f>
+        <f t="shared" si="23"/>
         <v>680191.55</v>
       </c>
       <c r="Z28" s="9">
-        <f>SUM(G28+K28+Y28)</f>
+        <f t="shared" si="24"/>
         <v>49403851.549999997</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2"/>
       <c r="B29" s="12">
         <f>B30*0.04</f>
         <v>320970</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D29" s="8">
-        <f>G29*0.7</f>
+        <f t="shared" si="18"/>
         <v>22722672</v>
       </c>
       <c r="E29" s="8">
-        <f>G29*0.2</f>
+        <f t="shared" si="19"/>
         <v>6492192</v>
       </c>
       <c r="F29" s="8">
-        <f>G29*0.1</f>
+        <f t="shared" si="20"/>
         <v>3246096</v>
       </c>
       <c r="G29" s="6">
@@ -2572,15 +2572,15 @@
         <v>32460960</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>15035.999999999998</v>
       </c>
       <c r="I29" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>4296</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>2148</v>
       </c>
       <c r="K29" s="6">
@@ -2612,15 +2612,15 @@
         <v>224779</v>
       </c>
       <c r="Y29" s="6">
-        <f>SUM(L29:X29)</f>
+        <f t="shared" si="23"/>
         <v>674458</v>
       </c>
       <c r="Z29" s="9">
-        <f>SUM(G29+K29+Y29)</f>
+        <f t="shared" si="24"/>
         <v>33156898</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3"/>
       <c r="B30" s="10">
         <f>12345000*H3</f>
@@ -2660,57 +2660,57 @@
         <v>591584.80000000005</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" ref="M30:X30" si="19">SUM(M23:M29)</f>
+        <f t="shared" ref="M30:X30" si="28">SUM(M23:M29)</f>
         <v>1912171.5</v>
       </c>
       <c r="N30" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>2472270</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>505607.74999999994</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>2415779.25</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>3596144</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>2023511</v>
       </c>
       <c r="S30" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>505627.74999999994</v>
       </c>
       <c r="T30" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U30" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>955155.74999999988</v>
       </c>
       <c r="V30" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>337458.5</v>
       </c>
       <c r="W30" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>224879</v>
       </c>
       <c r="X30" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>2303559.75</v>
       </c>
       <c r="Y30" s="6"/>
       <c r="Z30" s="9"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4"/>
       <c r="B31" s="11">
         <f>B14+B22+B30</f>
@@ -2738,11 +2738,11 @@
         <v>24100</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" ref="I31:J31" si="20">I14+I22+I30</f>
+        <f t="shared" ref="I31:J31" si="29">I14+I22+I30</f>
         <v>40000</v>
       </c>
       <c r="J31" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>677000</v>
       </c>
       <c r="K31" s="9">
@@ -2754,60 +2754,60 @@
         <v>2538865.165</v>
       </c>
       <c r="M31" s="9">
-        <f t="shared" ref="M31:X31" si="21">SUM(M14+M22+M30)</f>
+        <f t="shared" ref="M31:X31" si="30">SUM(M14+M22+M30)</f>
         <v>3726468.05</v>
       </c>
       <c r="N31" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>4391476.1500000004</v>
       </c>
       <c r="O31" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>2022499.3</v>
       </c>
       <c r="P31" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>5431853.7000000002</v>
       </c>
       <c r="Q31" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>4966316</v>
       </c>
       <c r="R31" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>3491748.25</v>
       </c>
       <c r="S31" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>2682552.75</v>
       </c>
       <c r="T31" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1148687.5</v>
       </c>
       <c r="U31" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>955155.74999999988</v>
       </c>
       <c r="V31" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>840689.05</v>
       </c>
       <c r="W31" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1019216.5</v>
       </c>
       <c r="X31" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>3477724.65</v>
       </c>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E38" s="8"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E40" s="8"/>
     </row>
   </sheetData>
